--- a/reports/Debug-snowbowl-20251217/Month to Date (Actual)_Revenue.xlsx
+++ b/reports/Debug-snowbowl-20251217/Month to Date (Actual)_Revenue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>DepartmentTitle</t>
   </si>
@@ -52,19 +52,22 @@
     <t>account</t>
   </si>
   <si>
+    <t xml:space="preserve">T103                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T100                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T257                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         </t>
+  </si>
+  <si>
     <t xml:space="preserve">T101                     </t>
   </si>
   <si>
     <t xml:space="preserve">T104                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T100                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T257                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">T103                     </t>
   </si>
   <si>
     <t>department</t>
@@ -482,22 +485,24 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
-        <v>-611.7500</v>
+        <v>77771.0600</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -505,13 +510,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
-        <v>65.4500</v>
+        <v>1317440.3800</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -519,13 +524,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
-        <v>-120.0000</v>
+        <v>73.0400</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -533,13 +538,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
-        <v>1317440.3800</v>
+        <v>-611.7500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -547,13 +552,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
-        <v>73.0400</v>
+        <v>65.4500</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -561,13 +566,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>77771.0600</v>
+        <v>-120.0000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -576,7 +581,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>167207.0000</v>
@@ -588,7 +593,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>425178.4800</v>
@@ -600,7 +605,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>157603.7800</v>
@@ -612,7 +617,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
         <v>73.0400</v>
@@ -624,7 +629,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <v>153437.9400</v>
@@ -636,7 +641,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
         <v>254983.7000</v>
@@ -648,7 +653,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>14798.6800</v>
@@ -660,7 +665,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>14976.8200</v>
@@ -672,7 +677,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>0.0500</v>
